--- a/example.xlsx
+++ b/example.xlsx
@@ -1,58 +1,402 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\cpp\stikers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Программа не должна быть чувствительна к регистру букв в названии бренда, просто подставлять нужную пикчу</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Принцип присвоения артикула такой:
+Серия
+/
+количество ламп
+Тип светильника (PL - потолочный, S - подвесной итп.)
+Цвет
+Если это возможно, было бы неплохо, если бы прога могла цеплять количество ламп из названия артикула в строчку с типом ламп.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Прога должна быть нечуствительна к пробелам и регистру "MAX". Если это возможно.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Цифра соответсвтует порядковому номеру международного обозначения пиктограмм (см. соовтетствующий файл)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Цифра соответсвтует порядковому номеру международного обозначения пиктограмм (см. соовтетствующий файл)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Цифра соответсвтует порядковому номеру международного обозначения пиктограмм (см. соовтетствующий файл)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Five</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>Рабочая сеть</t>
+  </si>
+  <si>
+    <t>Тип светильника</t>
+  </si>
+  <si>
+    <t>Класс влагостойкости</t>
+  </si>
+  <si>
+    <t>Класс защиты</t>
+  </si>
+  <si>
+    <t>Монтаж на воспламеняющих поверхностях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myOne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 078/5PL Antique green</t>
+  </si>
+  <si>
+    <t>078/1A Antique green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LuceSolara </t>
+  </si>
+  <si>
+    <t>LuceSolara</t>
+  </si>
+  <si>
+    <t>3043/12PL Chrome/White</t>
+  </si>
+  <si>
+    <t>3043/18S Chrome/White</t>
+  </si>
+  <si>
+    <t>3020/8PL Chrome/White</t>
+  </si>
+  <si>
+    <t>3020/6PL Chrome/White</t>
+  </si>
+  <si>
+    <t>3044/1PL White</t>
+  </si>
+  <si>
+    <t>3044/7PL White</t>
+  </si>
+  <si>
+    <t>3000/4S Red/White</t>
+  </si>
+  <si>
+    <t>3000/4S Blue/White</t>
+  </si>
+  <si>
+    <t>3000/4PL Red/White</t>
+  </si>
+  <si>
+    <t>3000/4PL Blue/White</t>
+  </si>
+  <si>
+    <t>E14 max 60W</t>
+  </si>
+  <si>
+    <t>Тип лампы</t>
+  </si>
+  <si>
+    <t>Количество ламп</t>
+  </si>
+  <si>
+    <t>220V/~50 Hz</t>
+  </si>
+  <si>
+    <t>IP20</t>
+  </si>
+  <si>
+    <t>IP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SieteColores </t>
+  </si>
+  <si>
+    <t>SP-001/21P Smoke Grey</t>
+  </si>
+  <si>
+    <t>SP-002/21P Champagne</t>
+  </si>
+  <si>
+    <t>SP-001/10P Smoke Grey</t>
+  </si>
+  <si>
+    <t>SP-002/10P Champagne</t>
+  </si>
+  <si>
+    <t>SP-003/12P Smoke Grey</t>
+  </si>
+  <si>
+    <t>SP-003/6PL Smoke Grey</t>
+  </si>
+  <si>
+    <t>SP-004/12P Original glass</t>
+  </si>
+  <si>
+    <t>SP-004/6PL Original glass</t>
+  </si>
+  <si>
+    <t>SP-005/16PL Smoke Grey</t>
+  </si>
+  <si>
+    <t>SP-005/16PL Champagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+G9 max 40W</t>
+  </si>
+  <si>
+    <t>G9 max 40W</t>
+  </si>
+  <si>
+    <t>E27 max 60W</t>
+  </si>
+  <si>
+    <t>E14 max100W</t>
+  </si>
+  <si>
+    <t>E14 max 100W</t>
+  </si>
+  <si>
+    <t>G9 max 60W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087/1L Antique green </t>
+  </si>
+  <si>
+    <t>091/1E Black</t>
+  </si>
+  <si>
+    <t>087/1 Antique green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myone </t>
+  </si>
+  <si>
+    <t>E27 max 40W</t>
+  </si>
+  <si>
+    <t>E27 MAX 60W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,24 +415,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="常规_Sheet1_1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -105,39 +475,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,196 +586,971 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4">
         <v>4</v>
       </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="4">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>